--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Nrp1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.5896589074012</v>
+        <v>35.31553166666666</v>
       </c>
       <c r="H2">
-        <v>23.5896589074012</v>
+        <v>105.946595</v>
       </c>
       <c r="I2">
-        <v>0.8361554445701622</v>
+        <v>0.8721848429085958</v>
       </c>
       <c r="J2">
-        <v>0.8361554445701622</v>
+        <v>0.8970630844856526</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N2">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O2">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P2">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q2">
-        <v>2478.645366376333</v>
+        <v>3854.505604729737</v>
       </c>
       <c r="R2">
-        <v>2478.645366376333</v>
+        <v>34690.55044256764</v>
       </c>
       <c r="S2">
-        <v>0.2940685738023864</v>
+        <v>0.3083646221840036</v>
       </c>
       <c r="T2">
-        <v>0.2940685738023864</v>
+        <v>0.3279626462436016</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.5896589074012</v>
+        <v>35.31553166666666</v>
       </c>
       <c r="H3">
-        <v>23.5896589074012</v>
+        <v>105.946595</v>
       </c>
       <c r="I3">
-        <v>0.8361554445701622</v>
+        <v>0.8721848429085958</v>
       </c>
       <c r="J3">
-        <v>0.8361554445701622</v>
+        <v>0.8970630844856526</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N3">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O3">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P3">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q3">
-        <v>1057.735967766484</v>
+        <v>1694.468344680292</v>
       </c>
       <c r="R3">
-        <v>1057.735967766484</v>
+        <v>15250.21510212263</v>
       </c>
       <c r="S3">
-        <v>0.1254906860497408</v>
+        <v>0.1355593024093497</v>
       </c>
       <c r="T3">
-        <v>0.1254906860497408</v>
+        <v>0.1441747345276797</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.5896589074012</v>
+        <v>35.31553166666666</v>
       </c>
       <c r="H4">
-        <v>23.5896589074012</v>
+        <v>105.946595</v>
       </c>
       <c r="I4">
-        <v>0.8361554445701622</v>
+        <v>0.8721848429085958</v>
       </c>
       <c r="J4">
-        <v>0.8361554445701622</v>
+        <v>0.8970630844856526</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N4">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O4">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P4">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q4">
-        <v>1444.875510341141</v>
+        <v>2199.007042811633</v>
       </c>
       <c r="R4">
-        <v>1444.875510341141</v>
+        <v>19791.0633853047</v>
       </c>
       <c r="S4">
-        <v>0.1714212474329025</v>
+        <v>0.1759229445935953</v>
       </c>
       <c r="T4">
-        <v>0.1714212474329025</v>
+        <v>0.1871036762753357</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.5896589074012</v>
+        <v>35.31553166666666</v>
       </c>
       <c r="H5">
-        <v>23.5896589074012</v>
+        <v>105.946595</v>
       </c>
       <c r="I5">
-        <v>0.8361554445701622</v>
+        <v>0.8721848429085958</v>
       </c>
       <c r="J5">
-        <v>0.8361554445701622</v>
+        <v>0.8970630844856526</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N5">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O5">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P5">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q5">
-        <v>1349.400654522643</v>
+        <v>2076.917247413045</v>
       </c>
       <c r="R5">
-        <v>1349.400654522643</v>
+        <v>18692.2552267174</v>
       </c>
       <c r="S5">
-        <v>0.1600940301288876</v>
+        <v>0.166155628758223</v>
       </c>
       <c r="T5">
-        <v>0.1600940301288876</v>
+        <v>0.1767156015170248</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.5896589074012</v>
+        <v>35.31553166666666</v>
       </c>
       <c r="H6">
-        <v>23.5896589074012</v>
+        <v>105.946595</v>
       </c>
       <c r="I6">
-        <v>0.8361554445701622</v>
+        <v>0.8721848429085958</v>
       </c>
       <c r="J6">
-        <v>0.8361554445701622</v>
+        <v>0.8970630844856526</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N6">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O6">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P6">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q6">
-        <v>717.1299998606307</v>
+        <v>1077.264730751278</v>
       </c>
       <c r="R6">
-        <v>717.1299998606307</v>
+        <v>6463.588384507671</v>
       </c>
       <c r="S6">
-        <v>0.08508090715624485</v>
+        <v>0.0861823449634242</v>
       </c>
       <c r="T6">
-        <v>0.08508090715624485</v>
+        <v>0.06110642592201088</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.46948862348906</v>
+        <v>1.699980333333333</v>
       </c>
       <c r="H7">
-        <v>1.46948862348906</v>
+        <v>5.099941</v>
       </c>
       <c r="I7">
-        <v>0.05208726917534117</v>
+        <v>0.04198427745533594</v>
       </c>
       <c r="J7">
-        <v>0.05208726917534117</v>
+        <v>0.04318183896476186</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N7">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O7">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P7">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q7">
-        <v>154.4041472516213</v>
+        <v>185.5439636195102</v>
       </c>
       <c r="R7">
-        <v>154.4041472516213</v>
+        <v>1669.895672575592</v>
       </c>
       <c r="S7">
-        <v>0.01831863807037413</v>
+        <v>0.01484371800363862</v>
       </c>
       <c r="T7">
-        <v>0.01831863807037413</v>
+        <v>0.01578710619294787</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.46948862348906</v>
+        <v>1.699980333333333</v>
       </c>
       <c r="H8">
-        <v>1.46948862348906</v>
+        <v>5.099941</v>
       </c>
       <c r="I8">
-        <v>0.05208726917534117</v>
+        <v>0.04198427745533594</v>
       </c>
       <c r="J8">
-        <v>0.05208726917534117</v>
+        <v>0.04318183896476186</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N8">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O8">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P8">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q8">
-        <v>65.89035379398267</v>
+        <v>81.56645887710835</v>
       </c>
       <c r="R8">
-        <v>65.89035379398267</v>
+        <v>734.0981298939751</v>
       </c>
       <c r="S8">
-        <v>0.007817287067515589</v>
+        <v>0.006525405033440118</v>
       </c>
       <c r="T8">
-        <v>0.007817287067515589</v>
+        <v>0.006940125256331547</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.46948862348906</v>
+        <v>1.699980333333333</v>
       </c>
       <c r="H9">
-        <v>1.46948862348906</v>
+        <v>5.099941</v>
       </c>
       <c r="I9">
-        <v>0.05208726917534117</v>
+        <v>0.04198427745533594</v>
       </c>
       <c r="J9">
-        <v>0.05208726917534117</v>
+        <v>0.04318183896476186</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N9">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O9">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P9">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q9">
-        <v>90.0067327441559</v>
+        <v>105.8533894074067</v>
       </c>
       <c r="R9">
-        <v>90.0067327441559</v>
+        <v>952.68050466666</v>
       </c>
       <c r="S9">
-        <v>0.01067847457717669</v>
+        <v>0.008468385774678318</v>
       </c>
       <c r="T9">
-        <v>0.01067847457717669</v>
+        <v>0.00900659157462599</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.46948862348906</v>
+        <v>1.699980333333333</v>
       </c>
       <c r="H10">
-        <v>1.46948862348906</v>
+        <v>5.099941</v>
       </c>
       <c r="I10">
-        <v>0.05208726917534117</v>
+        <v>0.04198427745533594</v>
       </c>
       <c r="J10">
-        <v>0.05208726917534117</v>
+        <v>0.04318183896476186</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N10">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O10">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P10">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q10">
-        <v>84.05924469418996</v>
+        <v>99.97636473063557</v>
       </c>
       <c r="R10">
-        <v>84.05924469418996</v>
+        <v>899.7872825757202</v>
       </c>
       <c r="S10">
-        <v>0.00997285958590542</v>
+        <v>0.007998217436670244</v>
       </c>
       <c r="T10">
-        <v>0.00997285958590542</v>
+        <v>0.008506541824362897</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.46948862348906</v>
+        <v>1.699980333333333</v>
       </c>
       <c r="H11">
-        <v>1.46948862348906</v>
+        <v>5.099941</v>
       </c>
       <c r="I11">
-        <v>0.05208726917534117</v>
+        <v>0.04198427745533594</v>
       </c>
       <c r="J11">
-        <v>0.05208726917534117</v>
+        <v>0.04318183896476186</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>30.4001852114798</v>
+        <v>30.503993</v>
       </c>
       <c r="N11">
-        <v>30.4001852114798</v>
+        <v>61.007986</v>
       </c>
       <c r="O11">
-        <v>0.1017525003379987</v>
+        <v>0.09881201864964768</v>
       </c>
       <c r="P11">
-        <v>0.1017525003379987</v>
+        <v>0.06811831517629259</v>
       </c>
       <c r="Q11">
-        <v>44.67272632022993</v>
+        <v>51.85618818813767</v>
       </c>
       <c r="R11">
-        <v>44.67272632022993</v>
+        <v>311.137129128826</v>
       </c>
       <c r="S11">
-        <v>0.005300009874369329</v>
+        <v>0.004148551206908637</v>
       </c>
       <c r="T11">
-        <v>0.005300009874369329</v>
+        <v>0.00294147411649356</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>3.15290210723391</v>
+        <v>0.02111333333333333</v>
       </c>
       <c r="H12">
-        <v>3.15290210723391</v>
+        <v>0.06333999999999999</v>
       </c>
       <c r="I12">
-        <v>0.1117572862544966</v>
+        <v>0.0005214342938518265</v>
       </c>
       <c r="J12">
-        <v>0.1117572862544966</v>
+        <v>0.000536307710231945</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>105.073387288303</v>
+        <v>109.1447706666667</v>
       </c>
       <c r="N12">
-        <v>105.073387288303</v>
+        <v>327.434312</v>
       </c>
       <c r="O12">
-        <v>0.3516912742863937</v>
+        <v>0.3535542089399963</v>
       </c>
       <c r="P12">
-        <v>0.3516912742863937</v>
+        <v>0.3655959674582361</v>
       </c>
       <c r="Q12">
-        <v>331.2861041954952</v>
+        <v>2.304409924675555</v>
       </c>
       <c r="R12">
-        <v>331.2861041954952</v>
+        <v>20.73968932208</v>
       </c>
       <c r="S12">
-        <v>0.03930406241363318</v>
+        <v>0.0001843552892769681</v>
       </c>
       <c r="T12">
-        <v>0.03930406241363318</v>
+        <v>0.0001960719361775592</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>3.15290210723391</v>
+        <v>0.02111333333333333</v>
       </c>
       <c r="H13">
-        <v>3.15290210723391</v>
+        <v>0.06333999999999999</v>
       </c>
       <c r="I13">
-        <v>0.1117572862544966</v>
+        <v>0.0005214342938518265</v>
       </c>
       <c r="J13">
-        <v>0.1117572862544966</v>
+        <v>0.000536307710231945</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>44.8389682919333</v>
+        <v>47.980825</v>
       </c>
       <c r="N13">
-        <v>44.8389682919333</v>
+        <v>143.942475</v>
       </c>
       <c r="O13">
-        <v>0.1500805703827607</v>
+        <v>0.155424969272891</v>
       </c>
       <c r="P13">
-        <v>0.1500805703827607</v>
+        <v>0.1607186127944892</v>
       </c>
       <c r="Q13">
-        <v>141.372877613831</v>
+        <v>1.013035151833333</v>
       </c>
       <c r="R13">
-        <v>141.372877613831</v>
+        <v>9.117316366499999</v>
       </c>
       <c r="S13">
-        <v>0.01677259726550431</v>
+        <v>8.104390909975175E-05</v>
       </c>
       <c r="T13">
-        <v>0.01677259726550431</v>
+        <v>8.619463121946706E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>3.15290210723391</v>
+        <v>0.02111333333333333</v>
       </c>
       <c r="H14">
-        <v>3.15290210723391</v>
+        <v>0.06333999999999999</v>
       </c>
       <c r="I14">
-        <v>0.1117572862544966</v>
+        <v>0.0005214342938518265</v>
       </c>
       <c r="J14">
-        <v>0.1117572862544966</v>
+        <v>0.000536307710231945</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>61.2503773798872</v>
+        <v>62.26741999999999</v>
       </c>
       <c r="N14">
-        <v>61.2503773798872</v>
+        <v>186.80226</v>
       </c>
       <c r="O14">
-        <v>0.2050112195598081</v>
+        <v>0.2017037397794264</v>
       </c>
       <c r="P14">
-        <v>0.2050112195598081</v>
+        <v>0.2085735992386923</v>
       </c>
       <c r="Q14">
-        <v>193.1164439099186</v>
+        <v>1.314672794266667</v>
       </c>
       <c r="R14">
-        <v>193.1164439099186</v>
+        <v>11.8320551484</v>
       </c>
       <c r="S14">
-        <v>0.02291149754972892</v>
+        <v>0.0001051752471191578</v>
       </c>
       <c r="T14">
-        <v>0.02291149754972892</v>
+        <v>0.0001118596294225384</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>3.15290210723391</v>
+        <v>0.02111333333333333</v>
       </c>
       <c r="H15">
-        <v>3.15290210723391</v>
+        <v>0.06333999999999999</v>
       </c>
       <c r="I15">
-        <v>0.1117572862544966</v>
+        <v>0.0005214342938518265</v>
       </c>
       <c r="J15">
-        <v>0.1117572862544966</v>
+        <v>0.000536307710231945</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>57.203059180278</v>
+        <v>58.81030666666667</v>
       </c>
       <c r="N15">
-        <v>57.203059180278</v>
+        <v>176.43092</v>
       </c>
       <c r="O15">
-        <v>0.1914644354330388</v>
+        <v>0.1905050633580386</v>
       </c>
       <c r="P15">
-        <v>0.1914644354330388</v>
+        <v>0.1969935053322898</v>
       </c>
       <c r="Q15">
-        <v>180.3556458297246</v>
+        <v>1.241681608088889</v>
       </c>
       <c r="R15">
-        <v>180.3556458297246</v>
+        <v>11.1751344728</v>
       </c>
       <c r="S15">
-        <v>0.02139754571824569</v>
+        <v>9.933587318729634E-05</v>
       </c>
       <c r="T15">
-        <v>0.02139754571824569</v>
+        <v>0.0001056491357753248</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02111333333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.06333999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.0005214342938518265</v>
+      </c>
+      <c r="J16">
+        <v>0.000536307710231945</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>30.503993</v>
+      </c>
+      <c r="N16">
+        <v>61.007986</v>
+      </c>
+      <c r="O16">
+        <v>0.09881201864964768</v>
+      </c>
+      <c r="P16">
+        <v>0.06811831517629259</v>
+      </c>
+      <c r="Q16">
+        <v>0.6440409722066667</v>
+      </c>
+      <c r="R16">
+        <v>3.86424583324</v>
+      </c>
+      <c r="S16">
+        <v>5.152397516865256E-05</v>
+      </c>
+      <c r="T16">
+        <v>3.653237763705542E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.08545499999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.256365</v>
+      </c>
+      <c r="I17">
+        <v>0.002110475256446535</v>
+      </c>
+      <c r="J17">
+        <v>0.002170674552156813</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>109.1447706666667</v>
+      </c>
+      <c r="N17">
+        <v>327.434312</v>
+      </c>
+      <c r="O17">
+        <v>0.3535542089399963</v>
+      </c>
+      <c r="P17">
+        <v>0.3655959674582361</v>
+      </c>
+      <c r="Q17">
+        <v>9.326966377319998</v>
+      </c>
+      <c r="R17">
+        <v>83.94269739587997</v>
+      </c>
+      <c r="S17">
+        <v>0.0007461674097803904</v>
+      </c>
+      <c r="T17">
+        <v>0.0007935898629327435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.08545499999999999</v>
+      </c>
+      <c r="H18">
+        <v>0.256365</v>
+      </c>
+      <c r="I18">
+        <v>0.002110475256446535</v>
+      </c>
+      <c r="J18">
+        <v>0.002170674552156813</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>47.980825</v>
+      </c>
+      <c r="N18">
+        <v>143.942475</v>
+      </c>
+      <c r="O18">
+        <v>0.155424969272891</v>
+      </c>
+      <c r="P18">
+        <v>0.1607186127944892</v>
+      </c>
+      <c r="Q18">
+        <v>4.100201400375</v>
+      </c>
+      <c r="R18">
+        <v>36.90181260337499</v>
+      </c>
+      <c r="S18">
+        <v>0.0003280205518843994</v>
+      </c>
+      <c r="T18">
+        <v>0.0003488678028509421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.08545499999999999</v>
+      </c>
+      <c r="H19">
+        <v>0.256365</v>
+      </c>
+      <c r="I19">
+        <v>0.002110475256446535</v>
+      </c>
+      <c r="J19">
+        <v>0.002170674552156813</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>62.26741999999999</v>
+      </c>
+      <c r="N19">
+        <v>186.80226</v>
+      </c>
+      <c r="O19">
+        <v>0.2017037397794264</v>
+      </c>
+      <c r="P19">
+        <v>0.2085735992386923</v>
+      </c>
+      <c r="Q19">
+        <v>5.321062376099999</v>
+      </c>
+      <c r="R19">
+        <v>47.88956138489999</v>
+      </c>
+      <c r="S19">
+        <v>0.00042569075193721</v>
+      </c>
+      <c r="T19">
+        <v>0.0004527454041191832</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.08545499999999999</v>
+      </c>
+      <c r="H20">
+        <v>0.256365</v>
+      </c>
+      <c r="I20">
+        <v>0.002110475256446535</v>
+      </c>
+      <c r="J20">
+        <v>0.002170674552156813</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>58.81030666666667</v>
+      </c>
+      <c r="N20">
+        <v>176.43092</v>
+      </c>
+      <c r="O20">
+        <v>0.1905050633580386</v>
+      </c>
+      <c r="P20">
+        <v>0.1969935053322898</v>
+      </c>
+      <c r="Q20">
+        <v>5.0256347562</v>
+      </c>
+      <c r="R20">
+        <v>45.2307128058</v>
+      </c>
+      <c r="S20">
+        <v>0.0004020562224449199</v>
+      </c>
+      <c r="T20">
+        <v>0.0004276087889649691</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.08545499999999999</v>
+      </c>
+      <c r="H21">
+        <v>0.256365</v>
+      </c>
+      <c r="I21">
+        <v>0.002110475256446535</v>
+      </c>
+      <c r="J21">
+        <v>0.002170674552156813</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>30.503993</v>
+      </c>
+      <c r="N21">
+        <v>61.007986</v>
+      </c>
+      <c r="O21">
+        <v>0.09881201864964768</v>
+      </c>
+      <c r="P21">
+        <v>0.06811831517629259</v>
+      </c>
+      <c r="Q21">
+        <v>2.606718721815</v>
+      </c>
+      <c r="R21">
+        <v>15.64031233089</v>
+      </c>
+      <c r="S21">
+        <v>0.000208540320399615</v>
+      </c>
+      <c r="T21">
+        <v>0.0001478626932889756</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.3687995</v>
+      </c>
+      <c r="H22">
+        <v>6.737599</v>
+      </c>
+      <c r="I22">
+        <v>0.08319897008576981</v>
+      </c>
+      <c r="J22">
+        <v>0.05704809428719676</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>109.1447706666667</v>
+      </c>
+      <c r="N22">
+        <v>327.434312</v>
+      </c>
+      <c r="O22">
+        <v>0.3535542089399963</v>
+      </c>
+      <c r="P22">
+        <v>0.3655959674582361</v>
+      </c>
+      <c r="Q22">
+        <v>367.6868488494814</v>
+      </c>
+      <c r="R22">
+        <v>2206.121093096888</v>
+      </c>
+      <c r="S22">
+        <v>0.02941534605329676</v>
+      </c>
+      <c r="T22">
+        <v>0.02085655322257637</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.3687995</v>
+      </c>
+      <c r="H23">
+        <v>6.737599</v>
+      </c>
+      <c r="I23">
+        <v>0.08319897008576981</v>
+      </c>
+      <c r="J23">
+        <v>0.05704809428719676</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>47.980825</v>
+      </c>
+      <c r="N23">
+        <v>143.942475</v>
+      </c>
+      <c r="O23">
+        <v>0.155424969272891</v>
+      </c>
+      <c r="P23">
+        <v>0.1607186127944892</v>
+      </c>
+      <c r="Q23">
+        <v>161.6377792695875</v>
+      </c>
+      <c r="R23">
+        <v>969.8266756175251</v>
+      </c>
+      <c r="S23">
+        <v>0.01293119736911695</v>
+      </c>
+      <c r="T23">
+        <v>0.009168690576407486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3.15290210723391</v>
-      </c>
-      <c r="H16">
-        <v>3.15290210723391</v>
-      </c>
-      <c r="I16">
-        <v>0.1117572862544966</v>
-      </c>
-      <c r="J16">
-        <v>0.1117572862544966</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>30.4001852114798</v>
-      </c>
-      <c r="N16">
-        <v>30.4001852114798</v>
-      </c>
-      <c r="O16">
-        <v>0.1017525003379987</v>
-      </c>
-      <c r="P16">
-        <v>0.1017525003379987</v>
-      </c>
-      <c r="Q16">
-        <v>95.84880801357581</v>
-      </c>
-      <c r="R16">
-        <v>95.84880801357581</v>
-      </c>
-      <c r="S16">
-        <v>0.01137158330738448</v>
-      </c>
-      <c r="T16">
-        <v>0.01137158330738448</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.3687995</v>
+      </c>
+      <c r="H24">
+        <v>6.737599</v>
+      </c>
+      <c r="I24">
+        <v>0.08319897008576981</v>
+      </c>
+      <c r="J24">
+        <v>0.05704809428719676</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>62.26741999999999</v>
+      </c>
+      <c r="N24">
+        <v>186.80226</v>
+      </c>
+      <c r="O24">
+        <v>0.2017037397794264</v>
+      </c>
+      <c r="P24">
+        <v>0.2085735992386923</v>
+      </c>
+      <c r="Q24">
+        <v>209.76645336229</v>
+      </c>
+      <c r="R24">
+        <v>1258.59872017374</v>
+      </c>
+      <c r="S24">
+        <v>0.01678154341209639</v>
+      </c>
+      <c r="T24">
+        <v>0.01189872635518891</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.3687995</v>
+      </c>
+      <c r="H25">
+        <v>6.737599</v>
+      </c>
+      <c r="I25">
+        <v>0.08319897008576981</v>
+      </c>
+      <c r="J25">
+        <v>0.05704809428719676</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>58.81030666666667</v>
+      </c>
+      <c r="N25">
+        <v>176.43092</v>
+      </c>
+      <c r="O25">
+        <v>0.1905050633580386</v>
+      </c>
+      <c r="P25">
+        <v>0.1969935053322898</v>
+      </c>
+      <c r="Q25">
+        <v>198.1201316935133</v>
+      </c>
+      <c r="R25">
+        <v>1188.72079016108</v>
+      </c>
+      <c r="S25">
+        <v>0.01584982506751314</v>
+      </c>
+      <c r="T25">
+        <v>0.01123810406616187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.3687995</v>
+      </c>
+      <c r="H26">
+        <v>6.737599</v>
+      </c>
+      <c r="I26">
+        <v>0.08319897008576981</v>
+      </c>
+      <c r="J26">
+        <v>0.05704809428719676</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>30.503993</v>
+      </c>
+      <c r="N26">
+        <v>61.007986</v>
+      </c>
+      <c r="O26">
+        <v>0.09881201864964768</v>
+      </c>
+      <c r="P26">
+        <v>0.06811831517629259</v>
+      </c>
+      <c r="Q26">
+        <v>102.7618363664035</v>
+      </c>
+      <c r="R26">
+        <v>411.0473454656141</v>
+      </c>
+      <c r="S26">
+        <v>0.008221058183746566</v>
+      </c>
+      <c r="T26">
+        <v>0.003886020066862126</v>
       </c>
     </row>
   </sheetData>
